--- a/docs/功能需求整理.xlsx
+++ b/docs/功能需求整理.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Think\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git-space\spring-boot-mvc\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$20</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>功能需求表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,6 +124,96 @@
   </si>
   <si>
     <t>发起联系人添加请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新鲜事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实时通讯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态以圈子为单位,可多个圈子共享</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圈子维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似分组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人聊天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群聊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -128,7 +221,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,16 +237,55 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -161,31 +293,186 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="适中" xfId="3" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -276,6 +563,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -311,6 +615,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -464,130 +785,276 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.25" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.25" customWidth="1"/>
+    <col min="4" max="4" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24"/>
+    </row>
+    <row r="3" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E4" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" t="s">
+      <c r="C5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E7" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="11"/>
+      <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="4" t="s">
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="11"/>
+      <c r="B9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="4"/>
-      <c r="C9" t="s">
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="11"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E10" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="4"/>
-      <c r="C10" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="11"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="11"/>
+      <c r="B12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="11"/>
+      <c r="B13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="11"/>
+      <c r="B15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="11"/>
+      <c r="B16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="11"/>
+      <c r="B17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="11"/>
+      <c r="B19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="18"/>
+      <c r="B20" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B8:B10"/>
+  <mergeCells count="9">
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="B9:B11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
